--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Batch</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Institute 1</t>
+  </si>
+  <si>
+    <t>b.tech</t>
+  </si>
+  <si>
+    <t>cse</t>
+  </si>
+  <si>
+    <t>1236547890</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Institute 2</t>
+  </si>
+  <si>
+    <t>123466</t>
   </si>
 </sst>
 </file>
@@ -426,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -483,6 +501,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Batch</t>
   </si>
@@ -28,46 +28,19 @@
     <t>Institute</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>xyz</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>btcs</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1245679935</t>
-  </si>
-  <si>
-    <t>Institute 3</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>123456789</t>
+    <t>1234567890</t>
   </si>
   <si>
     <t>Institute 1</t>
-  </si>
-  <si>
-    <t>b.tech</t>
-  </si>
-  <si>
-    <t>cse</t>
-  </si>
-  <si>
-    <t>1236547890</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Institute 2</t>
-  </si>
-  <si>
-    <t>123466</t>
   </si>
 </sst>
 </file>
@@ -444,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -484,74 +457,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -31,16 +31,16 @@
     <t>2022</t>
   </si>
   <si>
-    <t>btcs</t>
+    <t>B.Tech</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Institute 1</t>
+    <t>1237894560</t>
+  </si>
+  <si>
+    <t>IIT Bombay</t>
   </si>
 </sst>
 </file>

--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Batch</t>
   </si>
@@ -22,25 +25,220 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Email</t>
   </si>
   <si>
     <t>Institute</t>
   </si>
   <si>
+    <t>Rajesh Kumar</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1237894560</t>
+    <t>B.Tech in Computer Science</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>rajeshkumar@example.com</t>
   </si>
   <si>
     <t>IIT Bombay</t>
+  </si>
+  <si>
+    <t>Anjali Sharma</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>B.Tech in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>anjalisharma@example.com</t>
+  </si>
+  <si>
+    <t>IIT Delhi</t>
+  </si>
+  <si>
+    <t>Rohan Verma</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>B.Tech in Electrical Engineering</t>
+  </si>
+  <si>
+    <t>rohanverma@example.com</t>
+  </si>
+  <si>
+    <t>IIT Madras</t>
+  </si>
+  <si>
+    <t>Priya Deshmukh</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>B.Tech in Civil Engineering</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>priyadeshmukh@example.com</t>
+  </si>
+  <si>
+    <t>IIT Kanpur</t>
+  </si>
+  <si>
+    <t>Suresh Patel</t>
+  </si>
+  <si>
+    <t>B.Tech in Chemical Engineering</t>
+  </si>
+  <si>
+    <t>sureshpatel@example.com</t>
+  </si>
+  <si>
+    <t>IIT Kharagpur</t>
+  </si>
+  <si>
+    <t>Kavita Joshi</t>
+  </si>
+  <si>
+    <t>B.Tech in Biotechnology</t>
+  </si>
+  <si>
+    <t>kavitajoshi@example.com</t>
+  </si>
+  <si>
+    <t>IIT Roorkee</t>
+  </si>
+  <si>
+    <t>Manish Gupta</t>
+  </si>
+  <si>
+    <t>B.Tech in Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>manishgupta@example.com</t>
+  </si>
+  <si>
+    <t>IIT Guwahati</t>
+  </si>
+  <si>
+    <t>Sneha Iyer</t>
+  </si>
+  <si>
+    <t>B.Tech in Information Technology</t>
+  </si>
+  <si>
+    <t>snehaiyer@example.com</t>
+  </si>
+  <si>
+    <t>IIT Hyderabad</t>
+  </si>
+  <si>
+    <t>Neha Singhal</t>
+  </si>
+  <si>
+    <t>B.Tech in Electronics and Communication Engineering</t>
+  </si>
+  <si>
+    <t>nehasinghal@example.com</t>
+  </si>
+  <si>
+    <t>IIT BHU</t>
+  </si>
+  <si>
+    <t>Emily Johnson</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Computer Science</t>
+  </si>
+  <si>
+    <t>emily.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>Liam Martinez</t>
+  </si>
+  <si>
+    <t>Master of Business Administration (MBA)</t>
+  </si>
+  <si>
+    <t>liam.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Sophia Nguyen</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts in International Relations</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>sophia.nguyen@example.com</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology (MIT)</t>
+  </si>
+  <si>
+    <t>Noah Smith</t>
+  </si>
+  <si>
+    <t>Master of Science in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>noah.smith@example.com</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>Isabella Davis</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Psychology</t>
+  </si>
+  <si>
+    <t>isabella.davis@example.com</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>Ethan Brown</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Economics</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>ethan.brown@example.com</t>
+  </si>
+  <si>
+    <t>California Institute of Technology (Caltech)</t>
   </si>
 </sst>
 </file>
@@ -417,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,22 +637,308 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
